--- a/Premier-League_2016-2017_WeekByWeek.xlsx
+++ b/Premier-League_2016-2017_WeekByWeek.xlsx
@@ -3,7 +3,7 @@
 <s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <s:workbookPr codeName="ThisWorkbook"/>
   <s:bookViews>
-    <s:workbookView activeTab="0"/>
+    <s:workbookView activeTab="1"/>
   </s:bookViews>
   <s:sheets>
     <s:sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
   <si>
     <t>Week 1</t>
   </si>
@@ -164,7 +164,7 @@
     <t>Sunderland (A)</t>
   </si>
   <si>
-    <t>Spurs (H)</t>
+    <t>Tottenham (H)</t>
   </si>
   <si>
     <t>Man United (A)</t>
@@ -236,7 +236,7 @@
     <t>Sunderland (H)</t>
   </si>
   <si>
-    <t>Spurs (A)</t>
+    <t>Tottenham (A)</t>
   </si>
   <si>
     <t>Man United (H)</t>
@@ -290,9 +290,6 @@
     <t>Southampton</t>
   </si>
   <si>
-    <t>Spurs</t>
-  </si>
-  <si>
     <t>Stoke</t>
   </si>
   <si>
@@ -300,6 +297,9 @@
   </si>
   <si>
     <t>Swansea</t>
+  </si>
+  <si>
+    <t>Tottenham</t>
   </si>
   <si>
     <t>Watford</t>
@@ -313,16 +313,13 @@
   <si>
     <t xml:space="preserve">Everton </t>
   </si>
-  <si>
-    <t>Tottenham</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -345,23 +342,66 @@
       <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="12">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CBAD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000B050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFC000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F8CBAD"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -399,18 +439,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -418,9 +451,16 @@
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -721,15 +761,14 @@
   </sheetPr>
   <dimension ref="A1:AM65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
+      <selection activeCell="A1" pane="topRight" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="13.88671875"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="15.77734375"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" width="15.88671875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39">
@@ -852,22 +891,22 @@
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="9" t="s">
         <v>44</v>
       </c>
       <c r="H2" t="s">
@@ -971,22 +1010,22 @@
       <c r="A3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="9" t="s">
         <v>76</v>
       </c>
       <c r="H3" t="s">
@@ -1090,22 +1129,22 @@
       <c r="A4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="9" t="s">
         <v>61</v>
       </c>
       <c r="H4" t="s">
@@ -1209,22 +1248,22 @@
       <c r="A5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="8" t="s">
         <v>78</v>
       </c>
       <c r="H5" t="s">
@@ -1328,22 +1367,22 @@
       <c r="A6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="9" t="s">
         <v>48</v>
       </c>
       <c r="H6" t="s">
@@ -1447,22 +1486,22 @@
       <c r="A7" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="8" t="s">
         <v>58</v>
       </c>
       <c r="H7" t="s">
@@ -1566,22 +1605,22 @@
       <c r="A8" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="8" t="s">
         <v>65</v>
       </c>
       <c r="H8" t="s">
@@ -1685,22 +1724,22 @@
       <c r="A9" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="8" t="s">
         <v>50</v>
       </c>
       <c r="H9" t="s">
@@ -1804,22 +1843,22 @@
       <c r="A10" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="9" t="s">
         <v>63</v>
       </c>
       <c r="H10" t="s">
@@ -1923,22 +1962,22 @@
       <c r="A11" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="9" t="s">
         <v>59</v>
       </c>
       <c r="H11" t="s">
@@ -2042,22 +2081,22 @@
       <c r="A12" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="9" t="s">
         <v>66</v>
       </c>
       <c r="H12" t="s">
@@ -2161,22 +2200,22 @@
       <c r="A13" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="8" t="s">
         <v>49</v>
       </c>
       <c r="H13" t="s">
@@ -2280,22 +2319,22 @@
       <c r="A14" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="9" t="s">
         <v>52</v>
       </c>
       <c r="H14" t="s">
@@ -2399,498 +2438,498 @@
       <c r="A15" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M15" t="s">
+        <v>51</v>
+      </c>
+      <c r="N15" t="s">
+        <v>41</v>
+      </c>
+      <c r="O15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>42</v>
+      </c>
+      <c r="R15" t="s">
+        <v>66</v>
+      </c>
+      <c r="S15" t="s">
+        <v>65</v>
+      </c>
+      <c r="T15" t="s">
+        <v>62</v>
+      </c>
+      <c r="U15" t="s">
+        <v>61</v>
+      </c>
+      <c r="V15" t="s">
+        <v>48</v>
+      </c>
+      <c r="W15" t="s">
+        <v>74</v>
+      </c>
+      <c r="X15" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z15" t="s">
         <v>57</v>
       </c>
-      <c r="D15" t="s">
+      <c r="AA15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG15" t="s">
         <v>39</v>
       </c>
-      <c r="E15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" t="s">
-        <v>71</v>
-      </c>
-      <c r="H15" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" t="s">
-        <v>67</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="AH15" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK15" t="s">
         <v>58</v>
       </c>
-      <c r="K15" t="s">
-        <v>66</v>
-      </c>
-      <c r="L15" t="s">
-        <v>78</v>
-      </c>
-      <c r="M15" t="s">
-        <v>69</v>
-      </c>
-      <c r="N15" t="s">
-        <v>62</v>
-      </c>
-      <c r="O15" t="s">
-        <v>46</v>
-      </c>
-      <c r="P15" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>63</v>
-      </c>
-      <c r="R15" t="s">
-        <v>60</v>
-      </c>
-      <c r="S15" t="s">
+      <c r="AL15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM15" t="s">
         <v>64</v>
-      </c>
-      <c r="T15" t="s">
-        <v>41</v>
-      </c>
-      <c r="U15" t="s">
-        <v>44</v>
-      </c>
-      <c r="V15" t="s">
-        <v>56</v>
-      </c>
-      <c r="W15" t="s">
-        <v>55</v>
-      </c>
-      <c r="X15" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="A16" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" t="s">
+        <v>79</v>
+      </c>
+      <c r="L16" t="s">
+        <v>58</v>
+      </c>
+      <c r="M16" t="s">
+        <v>63</v>
+      </c>
+      <c r="N16" t="s">
+        <v>65</v>
+      </c>
+      <c r="O16" t="s">
+        <v>66</v>
+      </c>
+      <c r="P16" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>44</v>
+      </c>
+      <c r="R16" t="s">
+        <v>61</v>
+      </c>
+      <c r="S16" t="s">
+        <v>50</v>
+      </c>
+      <c r="T16" t="s">
+        <v>45</v>
+      </c>
+      <c r="U16" t="s">
+        <v>39</v>
+      </c>
+      <c r="V16" t="s">
+        <v>53</v>
+      </c>
+      <c r="W16" t="s">
+        <v>67</v>
+      </c>
+      <c r="X16" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC16" t="s">
         <v>71</v>
       </c>
-      <c r="C16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" t="s">
-        <v>50</v>
-      </c>
-      <c r="I16" t="s">
-        <v>72</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="AD16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK16" t="s">
         <v>43</v>
       </c>
-      <c r="K16" t="s">
+      <c r="AL16" t="s">
         <v>46</v>
       </c>
-      <c r="L16" t="s">
-        <v>52</v>
-      </c>
-      <c r="M16" t="s">
-        <v>51</v>
-      </c>
-      <c r="N16" t="s">
-        <v>41</v>
-      </c>
-      <c r="O16" t="s">
-        <v>60</v>
-      </c>
-      <c r="P16" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>42</v>
-      </c>
-      <c r="R16" t="s">
-        <v>66</v>
-      </c>
-      <c r="S16" t="s">
-        <v>65</v>
-      </c>
-      <c r="T16" t="s">
+      <c r="AM16" t="s">
         <v>62</v>
-      </c>
-      <c r="U16" t="s">
-        <v>61</v>
-      </c>
-      <c r="V16" t="s">
-        <v>48</v>
-      </c>
-      <c r="W16" t="s">
-        <v>74</v>
-      </c>
-      <c r="X16" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:39">
       <c r="A17" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" t="s">
+        <v>78</v>
+      </c>
+      <c r="J17" t="s">
+        <v>61</v>
+      </c>
+      <c r="K17" t="s">
+        <v>75</v>
+      </c>
+      <c r="L17" t="s">
+        <v>74</v>
+      </c>
+      <c r="M17" t="s">
+        <v>54</v>
+      </c>
+      <c r="N17" t="s">
+        <v>57</v>
+      </c>
+      <c r="O17" t="s">
+        <v>73</v>
+      </c>
+      <c r="P17" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>67</v>
+      </c>
+      <c r="R17" t="s">
+        <v>71</v>
+      </c>
+      <c r="S17" t="s">
+        <v>69</v>
+      </c>
+      <c r="T17" t="s">
+        <v>51</v>
+      </c>
+      <c r="U17" t="s">
+        <v>70</v>
+      </c>
+      <c r="V17" t="s">
+        <v>79</v>
+      </c>
+      <c r="W17" t="s">
+        <v>65</v>
+      </c>
+      <c r="X17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y17" t="s">
         <v>55</v>
       </c>
-      <c r="C17" t="s">
+      <c r="Z17" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE17" t="s">
         <v>47</v>
       </c>
-      <c r="D17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="AF17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK17" t="s">
         <v>76</v>
       </c>
-      <c r="F17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G17" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="AL17" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM17" t="s">
         <v>56</v>
-      </c>
-      <c r="I17" t="s">
-        <v>75</v>
-      </c>
-      <c r="J17" t="s">
-        <v>52</v>
-      </c>
-      <c r="K17" t="s">
-        <v>79</v>
-      </c>
-      <c r="L17" t="s">
-        <v>58</v>
-      </c>
-      <c r="M17" t="s">
-        <v>63</v>
-      </c>
-      <c r="N17" t="s">
-        <v>65</v>
-      </c>
-      <c r="O17" t="s">
-        <v>66</v>
-      </c>
-      <c r="P17" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>44</v>
-      </c>
-      <c r="R17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S17" t="s">
-        <v>50</v>
-      </c>
-      <c r="T17" t="s">
-        <v>45</v>
-      </c>
-      <c r="U17" t="s">
-        <v>39</v>
-      </c>
-      <c r="V17" t="s">
-        <v>53</v>
-      </c>
-      <c r="W17" t="s">
-        <v>67</v>
-      </c>
-      <c r="X17" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>51</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:39">
       <c r="A18" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" t="s">
+        <v>58</v>
+      </c>
+      <c r="K18" t="s">
+        <v>66</v>
+      </c>
+      <c r="L18" t="s">
+        <v>78</v>
+      </c>
+      <c r="M18" t="s">
+        <v>69</v>
+      </c>
+      <c r="N18" t="s">
+        <v>62</v>
+      </c>
+      <c r="O18" t="s">
+        <v>46</v>
+      </c>
+      <c r="P18" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>63</v>
+      </c>
+      <c r="R18" t="s">
+        <v>60</v>
+      </c>
+      <c r="S18" t="s">
+        <v>64</v>
+      </c>
+      <c r="T18" t="s">
+        <v>41</v>
+      </c>
+      <c r="U18" t="s">
+        <v>44</v>
+      </c>
+      <c r="V18" t="s">
+        <v>56</v>
+      </c>
+      <c r="W18" t="s">
+        <v>55</v>
+      </c>
+      <c r="X18" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE18" t="s">
         <v>45</v>
       </c>
-      <c r="C18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="AF18" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI18" t="s">
         <v>40</v>
       </c>
-      <c r="E18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" t="s">
-        <v>68</v>
-      </c>
-      <c r="H18" t="s">
-        <v>39</v>
-      </c>
-      <c r="I18" t="s">
-        <v>78</v>
-      </c>
-      <c r="J18" t="s">
-        <v>61</v>
-      </c>
-      <c r="K18" t="s">
-        <v>75</v>
-      </c>
-      <c r="L18" t="s">
+      <c r="AJ18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL18" t="s">
         <v>74</v>
       </c>
-      <c r="M18" t="s">
-        <v>54</v>
-      </c>
-      <c r="N18" t="s">
-        <v>57</v>
-      </c>
-      <c r="O18" t="s">
-        <v>73</v>
-      </c>
-      <c r="P18" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>67</v>
-      </c>
-      <c r="R18" t="s">
-        <v>71</v>
-      </c>
-      <c r="S18" t="s">
-        <v>69</v>
-      </c>
-      <c r="T18" t="s">
-        <v>51</v>
-      </c>
-      <c r="U18" t="s">
-        <v>70</v>
-      </c>
-      <c r="V18" t="s">
-        <v>79</v>
-      </c>
-      <c r="W18" t="s">
-        <v>65</v>
-      </c>
-      <c r="X18" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC18" t="s">
+      <c r="AM18" t="s">
         <v>43</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>76</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:39">
       <c r="A19" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="8" t="s">
         <v>45</v>
       </c>
       <c r="H19" t="s">
@@ -2994,22 +3033,22 @@
       <c r="A20" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="10" t="s">
         <v>75</v>
       </c>
       <c r="H20" t="s">
@@ -3113,22 +3152,22 @@
       <c r="A21" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="8" t="s">
         <v>42</v>
       </c>
       <c r="H21" t="s">
@@ -3348,22 +3387,22 @@
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="9" t="s">
         <v>44</v>
       </c>
       <c r="H24" t="s">
@@ -3467,22 +3506,22 @@
       <c r="A25" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="9" t="s">
         <v>76</v>
       </c>
       <c r="H25" t="s">
@@ -3586,22 +3625,22 @@
       <c r="A26" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="9" t="s">
         <v>61</v>
       </c>
       <c r="H26" t="s">
@@ -3705,22 +3744,22 @@
       <c r="A27" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="8" t="s">
         <v>78</v>
       </c>
       <c r="H27" t="s">
@@ -3824,22 +3863,22 @@
       <c r="A28" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="12" t="s">
         <v>48</v>
       </c>
       <c r="H28" t="s">
@@ -3943,22 +3982,22 @@
       <c r="A29" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="11" t="s">
         <v>58</v>
       </c>
       <c r="H29" t="s">
@@ -4062,22 +4101,22 @@
       <c r="A30" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="8" t="s">
         <v>65</v>
       </c>
       <c r="H30" t="s">
@@ -4181,22 +4220,22 @@
       <c r="A31" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="8" t="s">
         <v>50</v>
       </c>
       <c r="H31" t="s">
@@ -4300,22 +4339,22 @@
       <c r="A32" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="11" t="s">
         <v>63</v>
       </c>
       <c r="H32" t="s">
@@ -4419,22 +4458,22 @@
       <c r="A33" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="11" t="s">
         <v>59</v>
       </c>
       <c r="H33" t="s">
@@ -4538,22 +4577,22 @@
       <c r="A34" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="11" t="s">
         <v>66</v>
       </c>
       <c r="H34" t="s">
@@ -4657,22 +4696,22 @@
       <c r="A35" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="12" t="s">
         <v>49</v>
       </c>
       <c r="H35" t="s">
@@ -4776,22 +4815,22 @@
       <c r="A36" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="9" t="s">
         <v>52</v>
       </c>
       <c r="H36" t="s">
@@ -4895,498 +4934,498 @@
       <c r="A37" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C37" t="s">
+      <c r="E37" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H37" t="s">
+        <v>50</v>
+      </c>
+      <c r="I37" t="s">
+        <v>72</v>
+      </c>
+      <c r="J37" t="s">
+        <v>43</v>
+      </c>
+      <c r="K37" t="s">
+        <v>46</v>
+      </c>
+      <c r="L37" t="s">
+        <v>52</v>
+      </c>
+      <c r="M37" t="s">
+        <v>51</v>
+      </c>
+      <c r="N37" t="s">
+        <v>41</v>
+      </c>
+      <c r="O37" t="s">
+        <v>60</v>
+      </c>
+      <c r="P37" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>42</v>
+      </c>
+      <c r="R37" t="s">
+        <v>66</v>
+      </c>
+      <c r="S37" t="s">
+        <v>65</v>
+      </c>
+      <c r="T37" t="s">
+        <v>62</v>
+      </c>
+      <c r="U37" t="s">
+        <v>61</v>
+      </c>
+      <c r="V37" t="s">
+        <v>48</v>
+      </c>
+      <c r="W37" t="s">
+        <v>74</v>
+      </c>
+      <c r="X37" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z37" t="s">
         <v>57</v>
       </c>
-      <c r="D37" t="s">
+      <c r="AA37" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG37" t="s">
         <v>39</v>
       </c>
-      <c r="E37" t="s">
-        <v>75</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
-      </c>
-      <c r="G37" t="s">
-        <v>71</v>
-      </c>
-      <c r="H37" t="s">
-        <v>68</v>
-      </c>
-      <c r="I37" t="s">
-        <v>67</v>
-      </c>
-      <c r="J37" t="s">
+      <c r="AH37" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK37" t="s">
         <v>58</v>
       </c>
-      <c r="K37" t="s">
-        <v>66</v>
-      </c>
-      <c r="L37" t="s">
-        <v>78</v>
-      </c>
-      <c r="M37" t="s">
-        <v>69</v>
-      </c>
-      <c r="N37" t="s">
-        <v>62</v>
-      </c>
-      <c r="O37" t="s">
-        <v>46</v>
-      </c>
-      <c r="P37" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>63</v>
-      </c>
-      <c r="R37" t="s">
-        <v>60</v>
-      </c>
-      <c r="S37" t="s">
+      <c r="AL37" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM37" t="s">
         <v>64</v>
-      </c>
-      <c r="T37" t="s">
-        <v>41</v>
-      </c>
-      <c r="U37" t="s">
-        <v>44</v>
-      </c>
-      <c r="V37" t="s">
-        <v>56</v>
-      </c>
-      <c r="W37" t="s">
-        <v>55</v>
-      </c>
-      <c r="X37" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF37" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG37" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH37" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI37" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ37" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK37" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL37" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM37" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:39">
       <c r="A38" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H38" t="s">
+        <v>56</v>
+      </c>
+      <c r="I38" t="s">
+        <v>75</v>
+      </c>
+      <c r="J38" t="s">
+        <v>52</v>
+      </c>
+      <c r="K38" t="s">
+        <v>79</v>
+      </c>
+      <c r="L38" t="s">
+        <v>58</v>
+      </c>
+      <c r="M38" t="s">
+        <v>63</v>
+      </c>
+      <c r="N38" t="s">
+        <v>65</v>
+      </c>
+      <c r="O38" t="s">
+        <v>66</v>
+      </c>
+      <c r="P38" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>44</v>
+      </c>
+      <c r="R38" t="s">
+        <v>61</v>
+      </c>
+      <c r="S38" t="s">
+        <v>50</v>
+      </c>
+      <c r="T38" t="s">
+        <v>45</v>
+      </c>
+      <c r="U38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V38" t="s">
+        <v>53</v>
+      </c>
+      <c r="W38" t="s">
+        <v>67</v>
+      </c>
+      <c r="X38" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC38" t="s">
         <v>71</v>
       </c>
-      <c r="C38" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" t="s">
-        <v>54</v>
-      </c>
-      <c r="E38" t="s">
-        <v>49</v>
-      </c>
-      <c r="F38" t="s">
-        <v>70</v>
-      </c>
-      <c r="G38" t="s">
-        <v>56</v>
-      </c>
-      <c r="H38" t="s">
-        <v>50</v>
-      </c>
-      <c r="I38" t="s">
-        <v>72</v>
-      </c>
-      <c r="J38" t="s">
+      <c r="AD38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK38" t="s">
         <v>43</v>
       </c>
-      <c r="K38" t="s">
+      <c r="AL38" t="s">
         <v>46</v>
       </c>
-      <c r="L38" t="s">
-        <v>52</v>
-      </c>
-      <c r="M38" t="s">
-        <v>51</v>
-      </c>
-      <c r="N38" t="s">
-        <v>41</v>
-      </c>
-      <c r="O38" t="s">
-        <v>60</v>
-      </c>
-      <c r="P38" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>42</v>
-      </c>
-      <c r="R38" t="s">
-        <v>66</v>
-      </c>
-      <c r="S38" t="s">
-        <v>65</v>
-      </c>
-      <c r="T38" t="s">
+      <c r="AM38" t="s">
         <v>62</v>
-      </c>
-      <c r="U38" t="s">
-        <v>61</v>
-      </c>
-      <c r="V38" t="s">
-        <v>48</v>
-      </c>
-      <c r="W38" t="s">
-        <v>74</v>
-      </c>
-      <c r="X38" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC38" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD38" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF38" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG38" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH38" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI38" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ38" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK38" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL38" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM38" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:39">
       <c r="A39" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H39" t="s">
+        <v>39</v>
+      </c>
+      <c r="I39" t="s">
+        <v>78</v>
+      </c>
+      <c r="J39" t="s">
+        <v>61</v>
+      </c>
+      <c r="K39" t="s">
+        <v>75</v>
+      </c>
+      <c r="L39" t="s">
+        <v>74</v>
+      </c>
+      <c r="M39" t="s">
+        <v>54</v>
+      </c>
+      <c r="N39" t="s">
+        <v>57</v>
+      </c>
+      <c r="O39" t="s">
+        <v>73</v>
+      </c>
+      <c r="P39" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>67</v>
+      </c>
+      <c r="R39" t="s">
+        <v>71</v>
+      </c>
+      <c r="S39" t="s">
+        <v>69</v>
+      </c>
+      <c r="T39" t="s">
+        <v>51</v>
+      </c>
+      <c r="U39" t="s">
+        <v>70</v>
+      </c>
+      <c r="V39" t="s">
+        <v>79</v>
+      </c>
+      <c r="W39" t="s">
+        <v>65</v>
+      </c>
+      <c r="X39" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y39" t="s">
         <v>55</v>
       </c>
-      <c r="C39" t="s">
+      <c r="Z39" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE39" t="s">
         <v>47</v>
       </c>
-      <c r="D39" t="s">
-        <v>64</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="AF39" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK39" t="s">
         <v>76</v>
       </c>
-      <c r="F39" t="s">
-        <v>73</v>
-      </c>
-      <c r="G39" t="s">
-        <v>57</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="AL39" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM39" t="s">
         <v>56</v>
-      </c>
-      <c r="I39" t="s">
-        <v>75</v>
-      </c>
-      <c r="J39" t="s">
-        <v>52</v>
-      </c>
-      <c r="K39" t="s">
-        <v>79</v>
-      </c>
-      <c r="L39" t="s">
-        <v>58</v>
-      </c>
-      <c r="M39" t="s">
-        <v>63</v>
-      </c>
-      <c r="N39" t="s">
-        <v>65</v>
-      </c>
-      <c r="O39" t="s">
-        <v>66</v>
-      </c>
-      <c r="P39" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>44</v>
-      </c>
-      <c r="R39" t="s">
-        <v>61</v>
-      </c>
-      <c r="S39" t="s">
-        <v>50</v>
-      </c>
-      <c r="T39" t="s">
-        <v>45</v>
-      </c>
-      <c r="U39" t="s">
-        <v>39</v>
-      </c>
-      <c r="V39" t="s">
-        <v>53</v>
-      </c>
-      <c r="W39" t="s">
-        <v>67</v>
-      </c>
-      <c r="X39" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC39" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD39" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF39" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG39" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH39" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI39" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ39" t="s">
-        <v>51</v>
-      </c>
-      <c r="AK39" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL39" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM39" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:39">
       <c r="A40" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H40" t="s">
+        <v>68</v>
+      </c>
+      <c r="I40" t="s">
+        <v>67</v>
+      </c>
+      <c r="J40" t="s">
+        <v>58</v>
+      </c>
+      <c r="K40" t="s">
+        <v>66</v>
+      </c>
+      <c r="L40" t="s">
+        <v>78</v>
+      </c>
+      <c r="M40" t="s">
+        <v>69</v>
+      </c>
+      <c r="N40" t="s">
+        <v>62</v>
+      </c>
+      <c r="O40" t="s">
+        <v>46</v>
+      </c>
+      <c r="P40" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>63</v>
+      </c>
+      <c r="R40" t="s">
+        <v>60</v>
+      </c>
+      <c r="S40" t="s">
+        <v>64</v>
+      </c>
+      <c r="T40" t="s">
+        <v>41</v>
+      </c>
+      <c r="U40" t="s">
+        <v>44</v>
+      </c>
+      <c r="V40" t="s">
+        <v>56</v>
+      </c>
+      <c r="W40" t="s">
+        <v>55</v>
+      </c>
+      <c r="X40" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE40" t="s">
         <v>45</v>
       </c>
-      <c r="C40" t="s">
-        <v>63</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="AF40" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI40" t="s">
         <v>40</v>
       </c>
-      <c r="E40" t="s">
-        <v>44</v>
-      </c>
-      <c r="F40" t="s">
-        <v>64</v>
-      </c>
-      <c r="G40" t="s">
-        <v>68</v>
-      </c>
-      <c r="H40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I40" t="s">
-        <v>78</v>
-      </c>
-      <c r="J40" t="s">
-        <v>61</v>
-      </c>
-      <c r="K40" t="s">
-        <v>75</v>
-      </c>
-      <c r="L40" t="s">
+      <c r="AJ40" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL40" t="s">
         <v>74</v>
       </c>
-      <c r="M40" t="s">
-        <v>54</v>
-      </c>
-      <c r="N40" t="s">
-        <v>57</v>
-      </c>
-      <c r="O40" t="s">
-        <v>73</v>
-      </c>
-      <c r="P40" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>67</v>
-      </c>
-      <c r="R40" t="s">
-        <v>71</v>
-      </c>
-      <c r="S40" t="s">
-        <v>69</v>
-      </c>
-      <c r="T40" t="s">
-        <v>51</v>
-      </c>
-      <c r="U40" t="s">
-        <v>70</v>
-      </c>
-      <c r="V40" t="s">
-        <v>79</v>
-      </c>
-      <c r="W40" t="s">
-        <v>65</v>
-      </c>
-      <c r="X40" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC40" t="s">
+      <c r="AM40" t="s">
         <v>43</v>
-      </c>
-      <c r="AD40" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE40" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF40" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG40" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH40" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI40" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ40" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK40" t="s">
-        <v>76</v>
-      </c>
-      <c r="AL40" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM40" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:39">
       <c r="A41" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="12" t="s">
         <v>45</v>
       </c>
       <c r="H41" t="s">
@@ -5490,22 +5529,22 @@
       <c r="A42" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="11" t="s">
         <v>75</v>
       </c>
       <c r="H42" t="s">
@@ -5609,22 +5648,22 @@
       <c r="A43" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="8" t="s">
         <v>42</v>
       </c>
       <c r="H43" t="s">
@@ -5844,22 +5883,22 @@
       <c r="A46" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="9" t="s">
         <v>44</v>
       </c>
       <c r="H46" t="s">
@@ -5963,22 +6002,22 @@
       <c r="A47" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="12" t="s">
         <v>76</v>
       </c>
       <c r="H47" t="s">
@@ -6082,22 +6121,22 @@
       <c r="A48" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="11" t="s">
         <v>61</v>
       </c>
       <c r="H48" t="s">
@@ -6201,22 +6240,22 @@
       <c r="A49" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="8" t="s">
         <v>78</v>
       </c>
       <c r="H49" t="s">
@@ -6320,22 +6359,22 @@
       <c r="A50" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="9" t="s">
         <v>48</v>
       </c>
       <c r="H50" t="s">
@@ -6439,22 +6478,22 @@
       <c r="A51" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="8" t="s">
         <v>58</v>
       </c>
       <c r="H51" t="s">
@@ -6558,22 +6597,22 @@
       <c r="A52" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="12" t="s">
         <v>65</v>
       </c>
       <c r="H52" t="s">
@@ -6677,22 +6716,22 @@
       <c r="A53" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="12" t="s">
         <v>50</v>
       </c>
       <c r="H53" t="s">
@@ -6796,22 +6835,22 @@
       <c r="A54" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="9" t="s">
         <v>63</v>
       </c>
       <c r="H54" t="s">
@@ -6915,22 +6954,22 @@
       <c r="A55" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="9" t="s">
         <v>59</v>
       </c>
       <c r="H55" t="s">
@@ -7034,22 +7073,22 @@
       <c r="A56" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="9" t="s">
         <v>66</v>
       </c>
       <c r="H56" t="s">
@@ -7153,22 +7192,22 @@
       <c r="A57" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="12" t="s">
         <v>49</v>
       </c>
       <c r="H57" t="s">
@@ -7272,22 +7311,22 @@
       <c r="A58" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="9" t="s">
         <v>52</v>
       </c>
       <c r="H58" t="s">
@@ -7391,498 +7430,498 @@
       <c r="A59" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C59" t="s">
+      <c r="E59" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H59" t="s">
+        <v>50</v>
+      </c>
+      <c r="I59" t="s">
+        <v>72</v>
+      </c>
+      <c r="J59" t="s">
+        <v>43</v>
+      </c>
+      <c r="K59" t="s">
+        <v>46</v>
+      </c>
+      <c r="L59" t="s">
+        <v>52</v>
+      </c>
+      <c r="M59" t="s">
+        <v>51</v>
+      </c>
+      <c r="N59" t="s">
+        <v>41</v>
+      </c>
+      <c r="O59" t="s">
+        <v>60</v>
+      </c>
+      <c r="P59" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>42</v>
+      </c>
+      <c r="R59" t="s">
+        <v>66</v>
+      </c>
+      <c r="S59" t="s">
+        <v>65</v>
+      </c>
+      <c r="T59" t="s">
+        <v>62</v>
+      </c>
+      <c r="U59" t="s">
+        <v>61</v>
+      </c>
+      <c r="V59" t="s">
+        <v>48</v>
+      </c>
+      <c r="W59" t="s">
+        <v>74</v>
+      </c>
+      <c r="X59" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z59" t="s">
         <v>57</v>
       </c>
-      <c r="D59" t="s">
+      <c r="AA59" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG59" t="s">
         <v>39</v>
       </c>
-      <c r="E59" t="s">
-        <v>75</v>
-      </c>
-      <c r="F59" t="s">
-        <v>72</v>
-      </c>
-      <c r="G59" t="s">
-        <v>71</v>
-      </c>
-      <c r="H59" t="s">
-        <v>68</v>
-      </c>
-      <c r="I59" t="s">
-        <v>67</v>
-      </c>
-      <c r="J59" t="s">
+      <c r="AH59" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI59" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ59" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK59" t="s">
         <v>58</v>
       </c>
-      <c r="K59" t="s">
-        <v>66</v>
-      </c>
-      <c r="L59" t="s">
-        <v>78</v>
-      </c>
-      <c r="M59" t="s">
-        <v>69</v>
-      </c>
-      <c r="N59" t="s">
-        <v>62</v>
-      </c>
-      <c r="O59" t="s">
-        <v>46</v>
-      </c>
-      <c r="P59" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>63</v>
-      </c>
-      <c r="R59" t="s">
-        <v>60</v>
-      </c>
-      <c r="S59" t="s">
+      <c r="AL59" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM59" t="s">
         <v>64</v>
-      </c>
-      <c r="T59" t="s">
-        <v>41</v>
-      </c>
-      <c r="U59" t="s">
-        <v>44</v>
-      </c>
-      <c r="V59" t="s">
-        <v>56</v>
-      </c>
-      <c r="W59" t="s">
-        <v>55</v>
-      </c>
-      <c r="X59" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y59" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z59" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA59" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB59" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC59" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD59" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE59" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF59" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG59" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH59" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI59" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ59" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK59" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL59" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM59" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="60" spans="1:39">
       <c r="A60" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H60" t="s">
+        <v>56</v>
+      </c>
+      <c r="I60" t="s">
+        <v>75</v>
+      </c>
+      <c r="J60" t="s">
+        <v>52</v>
+      </c>
+      <c r="K60" t="s">
+        <v>79</v>
+      </c>
+      <c r="L60" t="s">
+        <v>58</v>
+      </c>
+      <c r="M60" t="s">
+        <v>63</v>
+      </c>
+      <c r="N60" t="s">
+        <v>65</v>
+      </c>
+      <c r="O60" t="s">
+        <v>66</v>
+      </c>
+      <c r="P60" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>44</v>
+      </c>
+      <c r="R60" t="s">
+        <v>61</v>
+      </c>
+      <c r="S60" t="s">
+        <v>50</v>
+      </c>
+      <c r="T60" t="s">
+        <v>45</v>
+      </c>
+      <c r="U60" t="s">
+        <v>39</v>
+      </c>
+      <c r="V60" t="s">
+        <v>53</v>
+      </c>
+      <c r="W60" t="s">
+        <v>67</v>
+      </c>
+      <c r="X60" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC60" t="s">
         <v>71</v>
       </c>
-      <c r="C60" t="s">
-        <v>68</v>
-      </c>
-      <c r="D60" t="s">
-        <v>54</v>
-      </c>
-      <c r="E60" t="s">
-        <v>49</v>
-      </c>
-      <c r="F60" t="s">
-        <v>70</v>
-      </c>
-      <c r="G60" t="s">
-        <v>56</v>
-      </c>
-      <c r="H60" t="s">
-        <v>50</v>
-      </c>
-      <c r="I60" t="s">
-        <v>72</v>
-      </c>
-      <c r="J60" t="s">
+      <c r="AD60" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ60" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK60" t="s">
         <v>43</v>
       </c>
-      <c r="K60" t="s">
+      <c r="AL60" t="s">
         <v>46</v>
       </c>
-      <c r="L60" t="s">
-        <v>52</v>
-      </c>
-      <c r="M60" t="s">
-        <v>51</v>
-      </c>
-      <c r="N60" t="s">
-        <v>41</v>
-      </c>
-      <c r="O60" t="s">
-        <v>60</v>
-      </c>
-      <c r="P60" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>42</v>
-      </c>
-      <c r="R60" t="s">
-        <v>66</v>
-      </c>
-      <c r="S60" t="s">
-        <v>65</v>
-      </c>
-      <c r="T60" t="s">
+      <c r="AM60" t="s">
         <v>62</v>
-      </c>
-      <c r="U60" t="s">
-        <v>61</v>
-      </c>
-      <c r="V60" t="s">
-        <v>48</v>
-      </c>
-      <c r="W60" t="s">
-        <v>74</v>
-      </c>
-      <c r="X60" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y60" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z60" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA60" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB60" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC60" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE60" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF60" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG60" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH60" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI60" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ60" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK60" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL60" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM60" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:39">
       <c r="A61" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H61" t="s">
+        <v>39</v>
+      </c>
+      <c r="I61" t="s">
+        <v>78</v>
+      </c>
+      <c r="J61" t="s">
+        <v>61</v>
+      </c>
+      <c r="K61" t="s">
+        <v>75</v>
+      </c>
+      <c r="L61" t="s">
+        <v>74</v>
+      </c>
+      <c r="M61" t="s">
+        <v>54</v>
+      </c>
+      <c r="N61" t="s">
+        <v>57</v>
+      </c>
+      <c r="O61" t="s">
+        <v>73</v>
+      </c>
+      <c r="P61" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>67</v>
+      </c>
+      <c r="R61" t="s">
+        <v>71</v>
+      </c>
+      <c r="S61" t="s">
+        <v>69</v>
+      </c>
+      <c r="T61" t="s">
+        <v>51</v>
+      </c>
+      <c r="U61" t="s">
+        <v>70</v>
+      </c>
+      <c r="V61" t="s">
+        <v>79</v>
+      </c>
+      <c r="W61" t="s">
+        <v>65</v>
+      </c>
+      <c r="X61" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y61" t="s">
         <v>55</v>
       </c>
-      <c r="C61" t="s">
+      <c r="Z61" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE61" t="s">
         <v>47</v>
       </c>
-      <c r="D61" t="s">
-        <v>64</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="AF61" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ61" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK61" t="s">
         <v>76</v>
       </c>
-      <c r="F61" t="s">
-        <v>73</v>
-      </c>
-      <c r="G61" t="s">
-        <v>57</v>
-      </c>
-      <c r="H61" t="s">
+      <c r="AL61" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM61" t="s">
         <v>56</v>
-      </c>
-      <c r="I61" t="s">
-        <v>75</v>
-      </c>
-      <c r="J61" t="s">
-        <v>52</v>
-      </c>
-      <c r="K61" t="s">
-        <v>79</v>
-      </c>
-      <c r="L61" t="s">
-        <v>58</v>
-      </c>
-      <c r="M61" t="s">
-        <v>63</v>
-      </c>
-      <c r="N61" t="s">
-        <v>65</v>
-      </c>
-      <c r="O61" t="s">
-        <v>66</v>
-      </c>
-      <c r="P61" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>44</v>
-      </c>
-      <c r="R61" t="s">
-        <v>61</v>
-      </c>
-      <c r="S61" t="s">
-        <v>50</v>
-      </c>
-      <c r="T61" t="s">
-        <v>45</v>
-      </c>
-      <c r="U61" t="s">
-        <v>39</v>
-      </c>
-      <c r="V61" t="s">
-        <v>53</v>
-      </c>
-      <c r="W61" t="s">
-        <v>67</v>
-      </c>
-      <c r="X61" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y61" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z61" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA61" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB61" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC61" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD61" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE61" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF61" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG61" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH61" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI61" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ61" t="s">
-        <v>51</v>
-      </c>
-      <c r="AK61" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL61" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM61" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:39">
       <c r="A62" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H62" t="s">
+        <v>68</v>
+      </c>
+      <c r="I62" t="s">
+        <v>67</v>
+      </c>
+      <c r="J62" t="s">
+        <v>58</v>
+      </c>
+      <c r="K62" t="s">
+        <v>66</v>
+      </c>
+      <c r="L62" t="s">
+        <v>78</v>
+      </c>
+      <c r="M62" t="s">
+        <v>69</v>
+      </c>
+      <c r="N62" t="s">
+        <v>62</v>
+      </c>
+      <c r="O62" t="s">
+        <v>46</v>
+      </c>
+      <c r="P62" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>63</v>
+      </c>
+      <c r="R62" t="s">
+        <v>60</v>
+      </c>
+      <c r="S62" t="s">
+        <v>64</v>
+      </c>
+      <c r="T62" t="s">
+        <v>41</v>
+      </c>
+      <c r="U62" t="s">
+        <v>44</v>
+      </c>
+      <c r="V62" t="s">
+        <v>56</v>
+      </c>
+      <c r="W62" t="s">
+        <v>55</v>
+      </c>
+      <c r="X62" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE62" t="s">
         <v>45</v>
       </c>
-      <c r="C62" t="s">
-        <v>63</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="AF62" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI62" t="s">
         <v>40</v>
       </c>
-      <c r="E62" t="s">
-        <v>44</v>
-      </c>
-      <c r="F62" t="s">
-        <v>64</v>
-      </c>
-      <c r="G62" t="s">
-        <v>68</v>
-      </c>
-      <c r="H62" t="s">
-        <v>39</v>
-      </c>
-      <c r="I62" t="s">
-        <v>78</v>
-      </c>
-      <c r="J62" t="s">
-        <v>61</v>
-      </c>
-      <c r="K62" t="s">
-        <v>75</v>
-      </c>
-      <c r="L62" t="s">
+      <c r="AJ62" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK62" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL62" t="s">
         <v>74</v>
       </c>
-      <c r="M62" t="s">
-        <v>54</v>
-      </c>
-      <c r="N62" t="s">
-        <v>57</v>
-      </c>
-      <c r="O62" t="s">
-        <v>73</v>
-      </c>
-      <c r="P62" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>67</v>
-      </c>
-      <c r="R62" t="s">
-        <v>71</v>
-      </c>
-      <c r="S62" t="s">
-        <v>69</v>
-      </c>
-      <c r="T62" t="s">
-        <v>51</v>
-      </c>
-      <c r="U62" t="s">
-        <v>70</v>
-      </c>
-      <c r="V62" t="s">
-        <v>79</v>
-      </c>
-      <c r="W62" t="s">
-        <v>65</v>
-      </c>
-      <c r="X62" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z62" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA62" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB62" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC62" t="s">
+      <c r="AM62" t="s">
         <v>43</v>
-      </c>
-      <c r="AD62" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE62" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF62" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG62" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH62" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI62" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ62" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK62" t="s">
-        <v>76</v>
-      </c>
-      <c r="AL62" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM62" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:39">
       <c r="A63" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="8" t="s">
         <v>45</v>
       </c>
       <c r="H63" t="s">
@@ -7986,22 +8025,22 @@
       <c r="A64" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="12" t="s">
         <v>75</v>
       </c>
       <c r="H64" t="s">
@@ -8105,22 +8144,22 @@
       <c r="A65" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="8" t="s">
         <v>42</v>
       </c>
       <c r="H65" t="s">
@@ -8233,8 +8272,9 @@
   </sheetPr>
   <dimension ref="A1:AM65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
+      <selection activeCell="H10" pane="topRight" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8243,141 +8283,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AH1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AI1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AK1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AL1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AM1" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:39">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="B2" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" s="9" t="n">
         <v>3</v>
       </c>
       <c r="H2" t="n">
@@ -8478,25 +8518,25 @@
       </c>
     </row>
     <row r="3" spans="1:39">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="B3" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="9" t="n">
         <v>3</v>
       </c>
       <c r="H3" t="n">
@@ -8597,25 +8637,25 @@
       </c>
     </row>
     <row r="4" spans="1:39">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="B4" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" s="9" t="n">
         <v>2</v>
       </c>
       <c r="H4" t="n">
@@ -8716,25 +8756,25 @@
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="B5" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" s="8" t="n">
         <v>4</v>
       </c>
       <c r="H5" t="n">
@@ -8835,25 +8875,25 @@
       </c>
     </row>
     <row r="6" spans="1:39">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="B6" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9" t="n">
         <v>2</v>
       </c>
       <c r="H6" t="n">
@@ -8954,25 +8994,25 @@
       </c>
     </row>
     <row r="7" spans="1:39">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B7" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="B7" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8" t="n">
         <v>2</v>
       </c>
       <c r="H7" t="n">
@@ -9073,25 +9113,25 @@
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>4</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="B8" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G8" s="8" t="n">
         <v>4</v>
       </c>
       <c r="H8" t="n">
@@ -9192,25 +9232,25 @@
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" t="n">
-        <v>4</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="B9" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8" t="n">
         <v>4</v>
       </c>
       <c r="H9" t="n">
@@ -9311,25 +9351,25 @@
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" t="n">
-        <v>4</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3</v>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="B10" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" s="9" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
@@ -9430,25 +9470,25 @@
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E11" t="n">
-        <v>4</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="B11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="9" t="n">
         <v>2</v>
       </c>
       <c r="H11" t="n">
@@ -9549,25 +9589,25 @@
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2</v>
-      </c>
-      <c r="E12" t="n">
-        <v>4</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
-      </c>
-      <c r="G12" t="n">
+      <c r="B12" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" s="9" t="n">
         <v>3</v>
       </c>
       <c r="H12" t="n">
@@ -9668,25 +9708,25 @@
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G13" t="n">
+      <c r="B13" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" s="8" t="n">
         <v>4</v>
       </c>
       <c r="H13" t="n">
@@ -9787,25 +9827,25 @@
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B14" t="n">
-        <v>2</v>
-      </c>
-      <c r="C14" t="n">
-        <v>4</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>4</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="B14" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" s="9" t="n">
         <v>3</v>
       </c>
       <c r="H14" t="n">
@@ -9906,25 +9946,25 @@
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="A15" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>3</v>
-      </c>
-      <c r="E15" t="n">
-        <v>4</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" t="n">
+      <c r="A15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" s="10" t="n">
         <v>2</v>
       </c>
       <c r="H15" t="n">
@@ -10025,25 +10065,25 @@
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="A16" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" t="n">
+      <c r="A16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>3</v>
-      </c>
-      <c r="E16" t="n">
-        <v>3</v>
-      </c>
-      <c r="F16" t="n">
-        <v>4</v>
-      </c>
-      <c r="G16" t="n">
+      <c r="C16" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G16" s="8" t="n">
         <v>2</v>
       </c>
       <c r="H16" t="n">
@@ -10144,25 +10184,25 @@
       </c>
     </row>
     <row r="17" spans="1:39">
-      <c r="A17" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>4</v>
-      </c>
-      <c r="E17" t="n">
-        <v>3</v>
-      </c>
-      <c r="F17" t="n">
-        <v>3</v>
-      </c>
-      <c r="G17" t="n">
+      <c r="A17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E17" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" s="8" t="n">
         <v>4</v>
       </c>
       <c r="H17" t="n">
@@ -10263,25 +10303,25 @@
       </c>
     </row>
     <row r="18" spans="1:39">
-      <c r="A18" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2</v>
-      </c>
-      <c r="D18" t="n">
-        <v>3</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" t="n">
+      <c r="A18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="9" t="n">
         <v>2</v>
       </c>
       <c r="H18" t="n">
@@ -10382,25 +10422,25 @@
       </c>
     </row>
     <row r="19" spans="1:39">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3</v>
-      </c>
-      <c r="D19" t="n">
-        <v>4</v>
-      </c>
-      <c r="E19" t="n">
-        <v>3</v>
-      </c>
-      <c r="F19" t="n">
-        <v>4</v>
-      </c>
-      <c r="G19" t="n">
+      <c r="B19" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G19" s="8" t="n">
         <v>2</v>
       </c>
       <c r="H19" t="n">
@@ -10501,25 +10541,25 @@
       </c>
     </row>
     <row r="20" spans="1:39">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B20" t="n">
-        <v>2</v>
-      </c>
-      <c r="C20" t="n">
-        <v>3</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="n">
-        <v>2</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2</v>
-      </c>
-      <c r="G20" t="n">
+      <c r="B20" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" s="10" t="n">
         <v>2</v>
       </c>
       <c r="H20" t="n">
@@ -10620,25 +10660,25 @@
       </c>
     </row>
     <row r="21" spans="1:39">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B21" t="n">
-        <v>4</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="B21" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="E21" t="n">
-        <v>2</v>
-      </c>
-      <c r="F21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G21" t="n">
+      <c r="E21" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" s="8" t="n">
         <v>3</v>
       </c>
       <c r="H21" t="n">
@@ -10739,141 +10779,141 @@
       </c>
     </row>
     <row r="23" spans="1:39">
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="C23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="K23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="L23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="M23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="N23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O23" s="3" t="s">
+      <c r="O23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P23" s="3" t="s">
+      <c r="P23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q23" s="3" t="s">
+      <c r="Q23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R23" s="3" t="s">
+      <c r="R23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S23" s="3" t="s">
+      <c r="S23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T23" s="3" t="s">
+      <c r="T23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U23" s="3" t="s">
+      <c r="U23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V23" s="3" t="s">
+      <c r="V23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W23" s="3" t="s">
+      <c r="W23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X23" s="3" t="s">
+      <c r="X23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y23" s="3" t="s">
+      <c r="Y23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z23" s="3" t="s">
+      <c r="Z23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AA23" s="3" t="s">
+      <c r="AA23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AB23" s="3" t="s">
+      <c r="AB23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AC23" s="3" t="s">
+      <c r="AC23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AD23" s="3" t="s">
+      <c r="AD23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AE23" s="3" t="s">
+      <c r="AE23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AF23" s="3" t="s">
+      <c r="AF23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AG23" s="3" t="s">
+      <c r="AG23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AH23" s="3" t="s">
+      <c r="AH23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AI23" s="3" t="s">
+      <c r="AI23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AJ23" s="3" t="s">
+      <c r="AJ23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AK23" s="3" t="s">
+      <c r="AK23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AL23" s="3" t="s">
+      <c r="AL23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AM23" s="3" t="s">
+      <c r="AM23" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:39">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C24" t="n">
-        <v>4</v>
-      </c>
-      <c r="D24" t="n">
-        <v>2</v>
-      </c>
-      <c r="E24" t="n">
-        <v>3</v>
-      </c>
-      <c r="F24" t="n">
-        <v>2</v>
-      </c>
-      <c r="G24" t="n">
+      <c r="B24" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D24" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F24" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" s="9" t="n">
         <v>3</v>
       </c>
       <c r="H24" t="n">
@@ -10974,25 +11014,25 @@
       </c>
     </row>
     <row r="25" spans="1:39">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B25" t="n">
-        <v>4</v>
-      </c>
-      <c r="C25" t="n">
-        <v>3</v>
-      </c>
-      <c r="D25" t="n">
-        <v>2</v>
-      </c>
-      <c r="E25" t="n">
-        <v>2</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="B25" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C25" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25" s="9" t="n">
         <v>3</v>
       </c>
       <c r="H25" t="n">
@@ -11093,25 +11133,25 @@
       </c>
     </row>
     <row r="26" spans="1:39">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B26" t="n">
-        <v>2</v>
-      </c>
-      <c r="C26" t="n">
-        <v>3</v>
-      </c>
-      <c r="D26" t="n">
-        <v>4</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" t="n">
-        <v>4</v>
-      </c>
-      <c r="G26" t="n">
+      <c r="B26" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E26" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G26" s="9" t="n">
         <v>2</v>
       </c>
       <c r="H26" t="n">
@@ -11212,25 +11252,25 @@
       </c>
     </row>
     <row r="27" spans="1:39">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B27" t="n">
-        <v>2</v>
-      </c>
-      <c r="C27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" t="n">
-        <v>2</v>
-      </c>
-      <c r="F27" t="n">
-        <v>3</v>
-      </c>
-      <c r="G27" t="n">
+      <c r="B27" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="G27" s="8" t="n">
         <v>4</v>
       </c>
       <c r="H27" t="n">
@@ -11331,25 +11371,25 @@
       </c>
     </row>
     <row r="28" spans="1:39">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B28" t="n">
-        <v>2</v>
-      </c>
-      <c r="C28" t="n">
-        <v>4</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" t="n">
-        <v>2</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" t="n">
+      <c r="B28" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D28" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="12" t="n">
         <v>2</v>
       </c>
       <c r="H28" t="n">
@@ -11450,25 +11490,25 @@
       </c>
     </row>
     <row r="29" spans="1:39">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B29" t="n">
-        <v>4</v>
-      </c>
-      <c r="C29" t="n">
-        <v>2</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" t="n">
-        <v>2</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" t="n">
+      <c r="B29" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C29" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="11" t="n">
         <v>2</v>
       </c>
       <c r="H29" t="n">
@@ -11569,25 +11609,25 @@
       </c>
     </row>
     <row r="30" spans="1:39">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B30" t="n">
-        <v>3</v>
-      </c>
-      <c r="C30" t="n">
-        <v>2</v>
-      </c>
-      <c r="D30" t="n">
-        <v>4</v>
-      </c>
-      <c r="E30" t="n">
-        <v>2</v>
-      </c>
-      <c r="F30" t="n">
-        <v>4</v>
-      </c>
-      <c r="G30" t="n">
+      <c r="B30" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C30" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E30" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G30" s="8" t="n">
         <v>4</v>
       </c>
       <c r="H30" t="n">
@@ -11688,25 +11728,25 @@
       </c>
     </row>
     <row r="31" spans="1:39">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B31" t="n">
-        <v>2</v>
-      </c>
-      <c r="C31" t="n">
-        <v>4</v>
-      </c>
-      <c r="D31" t="n">
-        <v>2</v>
-      </c>
-      <c r="E31" t="n">
-        <v>4</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" t="n">
+      <c r="B31" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D31" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="8" t="n">
         <v>4</v>
       </c>
       <c r="H31" t="n">
@@ -11807,25 +11847,25 @@
       </c>
     </row>
     <row r="32" spans="1:39">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B32" t="n">
-        <v>4</v>
-      </c>
-      <c r="C32" t="n">
-        <v>2</v>
-      </c>
-      <c r="D32" t="n">
-        <v>4</v>
-      </c>
-      <c r="E32" t="n">
-        <v>3</v>
-      </c>
-      <c r="F32" t="n">
-        <v>4</v>
-      </c>
-      <c r="G32" t="n">
+      <c r="B32" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C32" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D32" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E32" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F32" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="G32" s="11" t="n">
         <v>1</v>
       </c>
       <c r="H32" t="n">
@@ -11926,25 +11966,25 @@
       </c>
     </row>
     <row r="33" spans="1:39">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B33" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" t="n">
-        <v>2</v>
-      </c>
-      <c r="D33" t="n">
-        <v>2</v>
-      </c>
-      <c r="E33" t="n">
-        <v>4</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" t="n">
+      <c r="B33" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D33" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E33" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="11" t="n">
         <v>2</v>
       </c>
       <c r="H33" t="n">
@@ -12045,25 +12085,25 @@
       </c>
     </row>
     <row r="34" spans="1:39">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B34" t="n">
-        <v>2</v>
-      </c>
-      <c r="C34" t="n">
-        <v>3</v>
-      </c>
-      <c r="D34" t="n">
-        <v>2</v>
-      </c>
-      <c r="E34" t="n">
-        <v>4</v>
-      </c>
-      <c r="F34" t="n">
-        <v>2</v>
-      </c>
-      <c r="G34" t="n">
+      <c r="B34" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C34" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E34" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F34" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G34" s="11" t="n">
         <v>3</v>
       </c>
       <c r="H34" t="n">
@@ -12164,25 +12204,25 @@
       </c>
     </row>
     <row r="35" spans="1:39">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B35" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" t="n">
-        <v>2</v>
-      </c>
-      <c r="D35" t="n">
-        <v>2</v>
-      </c>
-      <c r="E35" t="n">
-        <v>2</v>
-      </c>
-      <c r="F35" t="n">
-        <v>3</v>
-      </c>
-      <c r="G35" t="n">
+      <c r="B35" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E35" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F35" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G35" s="12" t="n">
         <v>4</v>
       </c>
       <c r="H35" t="n">
@@ -12283,25 +12323,25 @@
       </c>
     </row>
     <row r="36" spans="1:39">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B36" t="n">
-        <v>2</v>
-      </c>
-      <c r="C36" t="n">
-        <v>4</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" t="n">
-        <v>4</v>
-      </c>
-      <c r="F36" t="n">
-        <v>2</v>
-      </c>
-      <c r="G36" t="n">
+      <c r="B36" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D36" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G36" s="9" t="n">
         <v>3</v>
       </c>
       <c r="H36" t="n">
@@ -12402,25 +12442,25 @@
       </c>
     </row>
     <row r="37" spans="1:39">
-      <c r="A37" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B37" t="n">
-        <v>2</v>
-      </c>
-      <c r="C37" t="n">
-        <v>4</v>
-      </c>
-      <c r="D37" t="n">
-        <v>3</v>
-      </c>
-      <c r="E37" t="n">
-        <v>4</v>
-      </c>
-      <c r="F37" t="n">
-        <v>2</v>
-      </c>
-      <c r="G37" t="n">
+      <c r="A37" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C37" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D37" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F37" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G37" s="11" t="n">
         <v>2</v>
       </c>
       <c r="H37" t="n">
@@ -12521,25 +12561,25 @@
       </c>
     </row>
     <row r="38" spans="1:39">
-      <c r="A38" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B38" t="n">
+      <c r="A38" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="C38" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" t="n">
-        <v>3</v>
-      </c>
-      <c r="E38" t="n">
-        <v>3</v>
-      </c>
-      <c r="F38" t="n">
-        <v>4</v>
-      </c>
-      <c r="G38" t="n">
+      <c r="C38" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E38" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F38" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="G38" s="8" t="n">
         <v>2</v>
       </c>
       <c r="H38" t="n">
@@ -12640,25 +12680,25 @@
       </c>
     </row>
     <row r="39" spans="1:39">
-      <c r="A39" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B39" t="n">
-        <v>2</v>
-      </c>
-      <c r="C39" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" t="n">
-        <v>4</v>
-      </c>
-      <c r="E39" t="n">
-        <v>3</v>
-      </c>
-      <c r="F39" t="n">
-        <v>3</v>
-      </c>
-      <c r="G39" t="n">
+      <c r="A39" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C39" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E39" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F39" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G39" s="8" t="n">
         <v>4</v>
       </c>
       <c r="H39" t="n">
@@ -12759,25 +12799,25 @@
       </c>
     </row>
     <row r="40" spans="1:39">
-      <c r="A40" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B40" t="n">
-        <v>3</v>
-      </c>
-      <c r="C40" t="n">
-        <v>2</v>
-      </c>
-      <c r="D40" t="n">
-        <v>3</v>
-      </c>
-      <c r="E40" t="n">
-        <v>2</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" t="n">
+      <c r="A40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C40" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D40" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E40" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="11" t="n">
         <v>2</v>
       </c>
       <c r="H40" t="n">
@@ -12878,25 +12918,25 @@
       </c>
     </row>
     <row r="41" spans="1:39">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B41" t="n">
-        <v>3</v>
-      </c>
-      <c r="C41" t="n">
-        <v>3</v>
-      </c>
-      <c r="D41" t="n">
-        <v>4</v>
-      </c>
-      <c r="E41" t="n">
-        <v>3</v>
-      </c>
-      <c r="F41" t="n">
-        <v>4</v>
-      </c>
-      <c r="G41" t="n">
+      <c r="B41" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C41" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D41" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E41" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F41" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="G41" s="12" t="n">
         <v>2</v>
       </c>
       <c r="H41" t="n">
@@ -12997,25 +13037,25 @@
       </c>
     </row>
     <row r="42" spans="1:39">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B42" t="n">
-        <v>2</v>
-      </c>
-      <c r="C42" t="n">
-        <v>3</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" t="n">
-        <v>2</v>
-      </c>
-      <c r="F42" t="n">
-        <v>2</v>
-      </c>
-      <c r="G42" t="n">
+      <c r="B42" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C42" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D42" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F42" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G42" s="11" t="n">
         <v>2</v>
       </c>
       <c r="H42" t="n">
@@ -13116,25 +13156,25 @@
       </c>
     </row>
     <row r="43" spans="1:39">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B43" t="n">
-        <v>4</v>
-      </c>
-      <c r="C43" t="n">
-        <v>1</v>
-      </c>
-      <c r="D43" t="n">
+      <c r="B43" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C43" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="E43" t="n">
-        <v>2</v>
-      </c>
-      <c r="F43" t="n">
-        <v>2</v>
-      </c>
-      <c r="G43" t="n">
+      <c r="E43" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F43" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G43" s="8" t="n">
         <v>3</v>
       </c>
       <c r="H43" t="n">
@@ -13235,141 +13275,141 @@
       </c>
     </row>
     <row r="45" spans="1:39">
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="3" t="s">
+      <c r="C45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="H45" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="I45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="J45" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="K45" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="L45" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M45" s="3" t="s">
+      <c r="M45" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N45" s="3" t="s">
+      <c r="N45" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O45" s="3" t="s">
+      <c r="O45" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P45" s="3" t="s">
+      <c r="P45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q45" s="3" t="s">
+      <c r="Q45" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R45" s="3" t="s">
+      <c r="R45" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S45" s="3" t="s">
+      <c r="S45" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T45" s="3" t="s">
+      <c r="T45" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U45" s="3" t="s">
+      <c r="U45" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V45" s="3" t="s">
+      <c r="V45" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W45" s="3" t="s">
+      <c r="W45" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X45" s="3" t="s">
+      <c r="X45" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y45" s="3" t="s">
+      <c r="Y45" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z45" s="3" t="s">
+      <c r="Z45" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AA45" s="3" t="s">
+      <c r="AA45" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AB45" s="3" t="s">
+      <c r="AB45" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AC45" s="3" t="s">
+      <c r="AC45" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AD45" s="3" t="s">
+      <c r="AD45" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AE45" s="3" t="s">
+      <c r="AE45" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AF45" s="3" t="s">
+      <c r="AF45" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AG45" s="3" t="s">
+      <c r="AG45" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AH45" s="3" t="s">
+      <c r="AH45" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AI45" s="3" t="s">
+      <c r="AI45" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AJ45" s="3" t="s">
+      <c r="AJ45" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AK45" s="3" t="s">
+      <c r="AK45" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AL45" s="3" t="s">
+      <c r="AL45" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AM45" s="3" t="s">
+      <c r="AM45" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:39">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B46" t="n">
-        <v>3</v>
-      </c>
-      <c r="C46" t="n">
-        <v>4</v>
-      </c>
-      <c r="D46" t="n">
-        <v>2</v>
-      </c>
-      <c r="E46" t="n">
-        <v>3</v>
-      </c>
-      <c r="F46" t="n">
-        <v>2</v>
-      </c>
-      <c r="G46" t="n">
+      <c r="B46" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E46" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G46" s="9" t="n">
         <v>3</v>
       </c>
       <c r="H46" t="n">
@@ -13470,25 +13510,25 @@
       </c>
     </row>
     <row r="47" spans="1:39">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B47" t="n">
-        <v>4</v>
-      </c>
-      <c r="C47" t="n">
-        <v>3</v>
-      </c>
-      <c r="D47" t="n">
-        <v>2</v>
-      </c>
-      <c r="E47" t="n">
-        <v>2</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="B47" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D47" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E47" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F47" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47" s="12" t="n">
         <v>3</v>
       </c>
       <c r="H47" t="n">
@@ -13589,25 +13629,25 @@
       </c>
     </row>
     <row r="48" spans="1:39">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B48" t="n">
-        <v>2</v>
-      </c>
-      <c r="C48" t="n">
-        <v>3</v>
-      </c>
-      <c r="D48" t="n">
-        <v>4</v>
-      </c>
-      <c r="E48" t="n">
-        <v>1</v>
-      </c>
-      <c r="F48" t="n">
-        <v>4</v>
-      </c>
-      <c r="G48" t="n">
+      <c r="B48" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C48" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D48" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E48" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G48" s="11" t="n">
         <v>2</v>
       </c>
       <c r="H48" t="n">
@@ -13708,25 +13748,25 @@
       </c>
     </row>
     <row r="49" spans="1:39">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B49" t="n">
-        <v>2</v>
-      </c>
-      <c r="C49" t="n">
-        <v>2</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" t="n">
-        <v>2</v>
-      </c>
-      <c r="F49" t="n">
-        <v>3</v>
-      </c>
-      <c r="G49" t="n">
+      <c r="B49" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C49" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F49" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="G49" s="8" t="n">
         <v>4</v>
       </c>
       <c r="H49" t="n">
@@ -13827,25 +13867,25 @@
       </c>
     </row>
     <row r="50" spans="1:39">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B50" t="n">
-        <v>2</v>
-      </c>
-      <c r="C50" t="n">
-        <v>4</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" t="n">
-        <v>2</v>
-      </c>
-      <c r="F50" t="n">
-        <v>1</v>
-      </c>
-      <c r="G50" t="n">
+      <c r="B50" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D50" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" s="9" t="n">
         <v>2</v>
       </c>
       <c r="H50" t="n">
@@ -13946,25 +13986,25 @@
       </c>
     </row>
     <row r="51" spans="1:39">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B51" t="n">
-        <v>4</v>
-      </c>
-      <c r="C51" t="n">
-        <v>2</v>
-      </c>
-      <c r="D51" t="n">
-        <v>1</v>
-      </c>
-      <c r="E51" t="n">
-        <v>2</v>
-      </c>
-      <c r="F51" t="n">
-        <v>1</v>
-      </c>
-      <c r="G51" t="n">
+      <c r="B51" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C51" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D51" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" s="8" t="n">
         <v>2</v>
       </c>
       <c r="H51" t="n">
@@ -14065,25 +14105,25 @@
       </c>
     </row>
     <row r="52" spans="1:39">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B52" t="n">
-        <v>3</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2</v>
-      </c>
-      <c r="D52" t="n">
-        <v>4</v>
-      </c>
-      <c r="E52" t="n">
-        <v>2</v>
-      </c>
-      <c r="F52" t="n">
-        <v>4</v>
-      </c>
-      <c r="G52" t="n">
+      <c r="B52" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C52" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D52" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E52" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F52" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="G52" s="12" t="n">
         <v>4</v>
       </c>
       <c r="H52" t="n">
@@ -14184,25 +14224,25 @@
       </c>
     </row>
     <row r="53" spans="1:39">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B53" t="n">
-        <v>2</v>
-      </c>
-      <c r="C53" t="n">
-        <v>4</v>
-      </c>
-      <c r="D53" t="n">
-        <v>2</v>
-      </c>
-      <c r="E53" t="n">
-        <v>4</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1</v>
-      </c>
-      <c r="G53" t="n">
+      <c r="B53" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D53" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E53" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" s="12" t="n">
         <v>4</v>
       </c>
       <c r="H53" t="n">
@@ -14303,25 +14343,25 @@
       </c>
     </row>
     <row r="54" spans="1:39">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B54" t="n">
-        <v>4</v>
-      </c>
-      <c r="C54" t="n">
-        <v>2</v>
-      </c>
-      <c r="D54" t="n">
-        <v>4</v>
-      </c>
-      <c r="E54" t="n">
-        <v>3</v>
-      </c>
-      <c r="F54" t="n">
-        <v>4</v>
-      </c>
-      <c r="G54" t="n">
+      <c r="B54" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D54" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E54" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F54" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="G54" s="9" t="n">
         <v>1</v>
       </c>
       <c r="H54" t="n">
@@ -14422,25 +14462,25 @@
       </c>
     </row>
     <row r="55" spans="1:39">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B55" t="n">
-        <v>1</v>
-      </c>
-      <c r="C55" t="n">
-        <v>2</v>
-      </c>
-      <c r="D55" t="n">
-        <v>2</v>
-      </c>
-      <c r="E55" t="n">
-        <v>4</v>
-      </c>
-      <c r="F55" t="n">
-        <v>1</v>
-      </c>
-      <c r="G55" t="n">
+      <c r="B55" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D55" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E55" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F55" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" s="9" t="n">
         <v>2</v>
       </c>
       <c r="H55" t="n">
@@ -14541,25 +14581,25 @@
       </c>
     </row>
     <row r="56" spans="1:39">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B56" t="n">
-        <v>2</v>
-      </c>
-      <c r="C56" t="n">
-        <v>3</v>
-      </c>
-      <c r="D56" t="n">
-        <v>2</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4</v>
-      </c>
-      <c r="F56" t="n">
-        <v>2</v>
-      </c>
-      <c r="G56" t="n">
+      <c r="B56" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C56" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D56" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E56" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F56" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G56" s="9" t="n">
         <v>3</v>
       </c>
       <c r="H56" t="n">
@@ -14660,25 +14700,25 @@
       </c>
     </row>
     <row r="57" spans="1:39">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B57" t="n">
-        <v>1</v>
-      </c>
-      <c r="C57" t="n">
-        <v>2</v>
-      </c>
-      <c r="D57" t="n">
-        <v>2</v>
-      </c>
-      <c r="E57" t="n">
-        <v>2</v>
-      </c>
-      <c r="F57" t="n">
-        <v>3</v>
-      </c>
-      <c r="G57" t="n">
+      <c r="B57" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D57" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E57" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F57" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="G57" s="12" t="n">
         <v>4</v>
       </c>
       <c r="H57" t="n">
@@ -14779,25 +14819,25 @@
       </c>
     </row>
     <row r="58" spans="1:39">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B58" t="n">
-        <v>2</v>
-      </c>
-      <c r="C58" t="n">
-        <v>4</v>
-      </c>
-      <c r="D58" t="n">
-        <v>1</v>
-      </c>
-      <c r="E58" t="n">
-        <v>4</v>
-      </c>
-      <c r="F58" t="n">
-        <v>2</v>
-      </c>
-      <c r="G58" t="n">
+      <c r="B58" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D58" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E58" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F58" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G58" s="9" t="n">
         <v>3</v>
       </c>
       <c r="H58" t="n">
@@ -14898,25 +14938,25 @@
       </c>
     </row>
     <row r="59" spans="1:39">
-      <c r="A59" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B59" t="n">
-        <v>2</v>
-      </c>
-      <c r="C59" t="n">
-        <v>4</v>
-      </c>
-      <c r="D59" t="n">
-        <v>3</v>
-      </c>
-      <c r="E59" t="n">
-        <v>4</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2</v>
-      </c>
-      <c r="G59" t="n">
+      <c r="A59" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B59" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C59" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D59" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F59" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G59" s="12" t="n">
         <v>2</v>
       </c>
       <c r="H59" t="n">
@@ -15017,25 +15057,25 @@
       </c>
     </row>
     <row r="60" spans="1:39">
-      <c r="A60" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B60" t="n">
+      <c r="A60" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B60" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="C60" t="n">
-        <v>1</v>
-      </c>
-      <c r="D60" t="n">
-        <v>3</v>
-      </c>
-      <c r="E60" t="n">
-        <v>3</v>
-      </c>
-      <c r="F60" t="n">
-        <v>4</v>
-      </c>
-      <c r="G60" t="n">
+      <c r="C60" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F60" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G60" s="11" t="n">
         <v>2</v>
       </c>
       <c r="H60" t="n">
@@ -15136,25 +15176,25 @@
       </c>
     </row>
     <row r="61" spans="1:39">
-      <c r="A61" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B61" t="n">
-        <v>2</v>
-      </c>
-      <c r="C61" t="n">
-        <v>1</v>
-      </c>
-      <c r="D61" t="n">
-        <v>4</v>
-      </c>
-      <c r="E61" t="n">
-        <v>3</v>
-      </c>
-      <c r="F61" t="n">
-        <v>3</v>
-      </c>
-      <c r="G61" t="n">
+      <c r="A61" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B61" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E61" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F61" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G61" s="12" t="n">
         <v>4</v>
       </c>
       <c r="H61" t="n">
@@ -15255,25 +15295,25 @@
       </c>
     </row>
     <row r="62" spans="1:39">
-      <c r="A62" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B62" t="n">
-        <v>3</v>
-      </c>
-      <c r="C62" t="n">
-        <v>2</v>
-      </c>
-      <c r="D62" t="n">
-        <v>3</v>
-      </c>
-      <c r="E62" t="n">
-        <v>2</v>
-      </c>
-      <c r="F62" t="n">
-        <v>1</v>
-      </c>
-      <c r="G62" t="n">
+      <c r="A62" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B62" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C62" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D62" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E62" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F62" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" s="11" t="n">
         <v>2</v>
       </c>
       <c r="H62" t="n">
@@ -15374,25 +15414,25 @@
       </c>
     </row>
     <row r="63" spans="1:39">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B63" t="n">
-        <v>3</v>
-      </c>
-      <c r="C63" t="n">
-        <v>3</v>
-      </c>
-      <c r="D63" t="n">
-        <v>4</v>
-      </c>
-      <c r="E63" t="n">
-        <v>3</v>
-      </c>
-      <c r="F63" t="n">
-        <v>4</v>
-      </c>
-      <c r="G63" t="n">
+      <c r="B63" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C63" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D63" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E63" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G63" s="8" t="n">
         <v>2</v>
       </c>
       <c r="H63" t="n">
@@ -15493,25 +15533,25 @@
       </c>
     </row>
     <row r="64" spans="1:39">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B64" t="n">
-        <v>2</v>
-      </c>
-      <c r="C64" t="n">
-        <v>3</v>
-      </c>
-      <c r="D64" t="n">
-        <v>1</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2</v>
-      </c>
-      <c r="G64" t="n">
+      <c r="B64" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C64" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D64" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G64" s="12" t="n">
         <v>2</v>
       </c>
       <c r="H64" t="n">
@@ -15612,25 +15652,25 @@
       </c>
     </row>
     <row r="65" spans="1:39">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B65" t="n">
-        <v>4</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1</v>
-      </c>
-      <c r="D65" t="n">
+      <c r="B65" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C65" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="E65" t="n">
-        <v>2</v>
-      </c>
-      <c r="F65" t="n">
-        <v>2</v>
-      </c>
-      <c r="G65" t="n">
+      <c r="E65" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F65" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G65" s="8" t="n">
         <v>3</v>
       </c>
       <c r="H65" t="n">
